--- a/nanobeam_soil_sensor.xlsx
+++ b/nanobeam_soil_sensor.xlsx
@@ -5,22 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaman\OneDrive\Documents\GitHub\low_power_challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/low_power_challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51960E9E-C6B0-40BC-8867-839E92713FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{51960E9E-C6B0-40BC-8867-839E92713FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{157D9116-D452-47CA-A950-6A3A54A15F78}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nanobeam_soil_sensor" sheetId="1" r:id="rId1"/>
+    <sheet name="Top Level BoM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>Part</t>
   </si>
@@ -299,6 +313,60 @@
   </si>
   <si>
     <t>CRYSTAL 32.7680KHZ 12.5PF SMD</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Component Type</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Bluetooth Beacon</t>
+  </si>
+  <si>
+    <t>Nanobeam</t>
+  </si>
+  <si>
+    <t>USD 1.32</t>
+  </si>
+  <si>
+    <t>PCBA</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>USD 20</t>
+  </si>
+  <si>
+    <t>PCBA x 2</t>
+  </si>
+  <si>
+    <t>Solar photo cell</t>
+  </si>
+  <si>
+    <t>Anysolar</t>
+  </si>
+  <si>
+    <t>USD 3.08</t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>USD 7.28</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -622,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -737,6 +805,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -782,12 +865,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -844,6 +929,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,14 +1235,14 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1172,330 +1261,425 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6109F96C-1CE0-48A1-B7E7-263FD200DC48}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="D6">
+        <v>31.68</v>
       </c>
     </row>
   </sheetData>
